--- a/biology/Mycologie/Dinocap/Dinocap.xlsx
+++ b/biology/Mycologie/Dinocap/Dinocap.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le dinocap est une substance active de produit phytosanitaire (ou produit phytopharmaceutique, ou pesticide), qui présente un effet fongicide, et qui appartient à la famille chimique des phénols.
@@ -512,9 +524,11 @@
           <t>Réglementation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Pour l’Union européenne : Le Dinocap est interdit dans l'Union européenne[4] par le règlement (CE) n° 1107/2009 du 21 octobre 2009 concernant la mise sur le marché des produits phytopharmaceutiques[5].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Pour l’Union européenne : Le Dinocap est interdit dans l'Union européenne par le règlement (CE) n° 1107/2009 du 21 octobre 2009 concernant la mise sur le marché des produits phytopharmaceutiques.</t>
         </is>
       </c>
     </row>
@@ -542,7 +556,9 @@
           <t>Caractéristiques physico-chimiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Présentation : Liquide ou poudre.
 Catégorie : Fongicides
@@ -584,7 +600,9 @@
           <t>Toxicité pour l’homme</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Sur le plan de la toxicité pour l’homme, la dose journalière acceptable (DJA) est de l’ordre de : 0,0005mk/kg/jour.
 Par ingestion : Troubles digestifs (diarrhees, vomissements, etc.) voire intoxication grave.
@@ -617,7 +635,9 @@
           <t>Écotoxicologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Effets sur les abeilles : Dinocap est non toxique.
 Effets sur les oiseaux : Dinocap est modérément toxique
@@ -650,7 +670,9 @@
           <t>Environnement</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Dinocap dure peu dans l'environnement du sol, avec une période de persistance d'environ 6 jours.
 Dinocap semble peu susceptible de souiller les eaux souterraines.</t>
